--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_07_beg.xlsx
@@ -344,7 +344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="サイレンス"]彼らは知らなかった。実はこの計画は、陰に潜むジェッセルトンに把握されていたことを。
+    <t xml:space="preserve">[name="サイレンス"]彼らは知らなかった。実はこの計画が、陰に潜むジェッセルトンにすでに把握されていたことを。
 </t>
   </si>
   <si>
